--- a/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCaoCapPhat.xlsx
+++ b/viettel_ns/Areas/QLVonDauTu/ReportExcelForm/rpt_BaoCaoCapPhat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\trangnt3\qlns-ctc-bqp\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\QLNS_WEB\sourcecode\viettel_ns\Areas\QLVonDauTu\ReportExcelForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -146,9 +146,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>5 = 6+7-8</t>
-  </si>
-  <si>
     <t>&lt;#DaTaDuAn.sTen&gt;</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>&lt;#DaTaDuAn.fKhac&gt;</t>
+  </si>
+  <si>
+    <t>5 = 6+7+8</t>
   </si>
 </sst>
 </file>
@@ -513,6 +513,9 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,9 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -837,7 +837,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,54 +857,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
-      <c r="D3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22"/>
@@ -921,38 +921,38 @@
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="38" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="21" t="s">
         <v>28</v>
       </c>
@@ -971,10 +971,10 @@
       <c r="I6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G7" s="23">
         <v>6</v>
@@ -1017,68 +1017,68 @@
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="26"/>
       <c r="C8" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="G8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="I8" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="L8" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>61</v>
       </c>
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
-      <c r="C9" s="41" t="s">
-        <v>51</v>
+      <c r="C9" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="G9" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="I9" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="J9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="K9" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="L9" s="29" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>61</v>
       </c>
       <c r="M9" s="27"/>
     </row>
@@ -1088,37 +1088,37 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="F10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="H10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="24" t="s">
+      <c r="L10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="24" t="s">
+      <c r="M10" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
